--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1076,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44831</v>
+      </c>
+      <c r="G5" s="8">
+        <v>7520</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,11 +1177,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,11 +1193,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1209,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1225,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1241,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1257,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1273,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1289,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1305,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1321,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1337,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1353,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1369,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1385,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1401,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1417,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1433,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1449,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1465,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1481,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1497,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1513,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1529,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1545,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1561,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1577,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1593,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1609,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1626,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1659,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>7520</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>15349</v>
+        <v>7829</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A5" sqref="A5:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,27 +1145,19 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44786</v>
-      </c>
-      <c r="B5" s="8">
-        <v>15349</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44831</v>
-      </c>
-      <c r="G5" s="8">
-        <v>7520</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>52</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1169,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1193,11 +1185,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1209,11 +1201,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1217,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1241,11 +1233,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1257,11 +1249,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1273,11 +1265,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1289,11 +1281,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1305,11 +1297,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1313,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1329,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1345,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1361,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1377,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1393,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1409,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1425,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1441,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1457,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1473,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1489,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1505,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1521,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1537,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1553,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1569,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1585,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1601,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1626,11 +1618,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44842</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1651,7 +1643,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>15349</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1659,7 +1651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>7520</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>7829</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44842</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44956</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/PRIME DELHI.xlsx
+++ b/IMPORTANT/PRIME DELHI.xlsx
@@ -1157,7 +1157,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,7 +1493,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44956</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
